--- a/优化项测试用例/优化Product.xlsx
+++ b/优化项测试用例/优化Product.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\360Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\DOC\测试\优化项测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{102D89A9-B3A4-41D6-820D-977461627FA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79DA2D2F-1BA8-481E-AB37-E19B124DB1C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,11 +450,6 @@
     <t>member列表非空</t>
   </si>
   <si>
-    <t>1、显示匹配到的member name
-2、产品名中匹配到的字符高亮，未搜索到则显示空态页面
-3、可以查看member产品、左划移除</t>
-  </si>
-  <si>
     <t>其他人有公司产品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1563,6 +1558,12 @@
   </si>
   <si>
     <t>直接移除，不需要弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、显示匹配到的member name
+2、产品名中匹配到的字符高亮，未搜索到则显示空态页面
+3、可以查看member产品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2093,8 +2094,8 @@
   <dimension ref="A1:J731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2162,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -2179,7 +2180,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -2197,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -2209,13 +2210,13 @@
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -2227,13 +2228,13 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -2245,13 +2246,13 @@
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -2263,13 +2264,13 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -2281,13 +2282,13 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -2299,13 +2300,13 @@
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -2317,13 +2318,13 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -2335,13 +2336,13 @@
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
       <c r="F12" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -2407,7 +2408,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="21"/>
       <c r="D16" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>34</v>
@@ -2487,13 +2488,13 @@
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2505,13 +2506,13 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2523,13 +2524,13 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -2541,13 +2542,13 @@
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2655,7 +2656,7 @@
       <c r="B29" s="13"/>
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>46</v>
@@ -2737,7 +2738,7 @@
       <c r="B33" s="13"/>
       <c r="C33" s="21"/>
       <c r="D33" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>51</v>
@@ -2879,7 +2880,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="21"/>
       <c r="D40" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>83</v>
@@ -2888,10 +2889,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -2945,7 +2946,7 @@
         <v>89</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>90</v>
@@ -2961,19 +2962,19 @@
       <c r="B44" s="13"/>
       <c r="C44" s="21"/>
       <c r="D44" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="13" t="s">
+      <c r="H44" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -2993,7 +2994,7 @@
         <v>75</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>99</v>
+        <v>362</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -3007,7 +3008,7 @@
         <v>89</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>90</v>
@@ -3022,22 +3023,22 @@
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D47" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="G47" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="H47" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -3046,22 +3047,22 @@
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="G48" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="H48" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -3071,19 +3072,19 @@
       <c r="B49" s="13"/>
       <c r="C49" s="21"/>
       <c r="D49" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="G49" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="H49" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -3094,16 +3095,16 @@
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="13" t="s">
+      <c r="H50" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
@@ -3114,13 +3115,13 @@
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>50</v>
@@ -3134,16 +3135,16 @@
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -3154,16 +3155,16 @@
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
@@ -3174,16 +3175,16 @@
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="H54" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -3194,16 +3195,16 @@
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
       <c r="E55" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="G55" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="H55" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -3213,19 +3214,19 @@
       <c r="B56" s="13"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="F56" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="H56" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -3236,16 +3237,16 @@
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="H57" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -3256,16 +3257,16 @@
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="H58" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -3276,16 +3277,16 @@
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -3296,16 +3297,16 @@
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="G60" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -3316,16 +3317,16 @@
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="H61" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -3334,7 +3335,7 @@
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>10</v>
@@ -3343,13 +3344,13 @@
         <v>11</v>
       </c>
       <c r="F62" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="H62" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -3365,13 +3366,13 @@
         <v>11</v>
       </c>
       <c r="F63" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="H63" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -3382,13 +3383,13 @@
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>50</v>
@@ -3402,13 +3403,13 @@
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>49</v>
@@ -3422,16 +3423,16 @@
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="13" t="s">
+      <c r="H66" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
@@ -3442,16 +3443,16 @@
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="H67" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
@@ -3462,16 +3463,16 @@
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
       <c r="E68" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="H68" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
@@ -3481,19 +3482,19 @@
       <c r="B69" s="13"/>
       <c r="C69" s="21"/>
       <c r="D69" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="F69" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="H69" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
@@ -3504,16 +3505,16 @@
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="H70" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -3524,16 +3525,16 @@
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F71" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="H71" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
@@ -3544,16 +3545,16 @@
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
       <c r="E72" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
@@ -3564,16 +3565,16 @@
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
       <c r="E73" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="G73" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
@@ -3584,16 +3585,16 @@
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -3602,7 +3603,7 @@
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>32</v>
@@ -3611,13 +3612,13 @@
         <v>11</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -3629,13 +3630,13 @@
       <c r="D76" s="21"/>
       <c r="E76" s="22"/>
       <c r="F76" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G76" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="H76" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -3646,16 +3647,16 @@
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
       <c r="E77" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G77" s="13" t="s">
+      <c r="H77" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
@@ -3666,13 +3667,13 @@
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
       <c r="E78" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>49</v>
@@ -3686,16 +3687,16 @@
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
       <c r="E79" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -3706,16 +3707,16 @@
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G80" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="H80" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -3727,13 +3728,13 @@
       <c r="D81" s="21"/>
       <c r="E81" s="22"/>
       <c r="F81" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -3744,16 +3745,16 @@
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="H82" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
@@ -3764,16 +3765,16 @@
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
       <c r="E83" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F83" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="G83" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="H83" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -3783,19 +3784,19 @@
       <c r="B84" s="13"/>
       <c r="C84" s="21"/>
       <c r="D84" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="F84" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G84" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="H84" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
@@ -3806,16 +3807,16 @@
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
       <c r="E85" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G85" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="H85" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
@@ -3826,16 +3827,16 @@
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
       <c r="E86" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G86" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
@@ -3846,10 +3847,10 @@
       <c r="C87" s="21"/>
       <c r="D87" s="21"/>
       <c r="E87" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -3862,16 +3863,16 @@
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
       <c r="E88" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
@@ -3880,22 +3881,22 @@
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="D89" s="20" t="s">
-        <v>258</v>
-      </c>
       <c r="E89" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F89" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G89" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="G89" s="13" t="s">
-        <v>261</v>
-      </c>
       <c r="H89" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
@@ -3907,13 +3908,13 @@
       <c r="D90" s="21"/>
       <c r="E90" s="22"/>
       <c r="F90" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
@@ -3924,16 +3925,16 @@
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
       <c r="E91" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="H91" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
@@ -3945,13 +3946,13 @@
       <c r="D92" s="21"/>
       <c r="E92" s="22"/>
       <c r="F92" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
@@ -3962,16 +3963,16 @@
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
       <c r="E93" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>269</v>
-      </c>
       <c r="G93" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
@@ -3983,13 +3984,13 @@
       <c r="D94" s="21"/>
       <c r="E94" s="22"/>
       <c r="F94" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -4000,16 +4001,16 @@
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
       <c r="E95" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="G95" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -4021,13 +4022,13 @@
       <c r="D96" s="21"/>
       <c r="E96" s="22"/>
       <c r="F96" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -4038,16 +4039,16 @@
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
       <c r="E97" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -4059,13 +4060,13 @@
       <c r="D98" s="21"/>
       <c r="E98" s="22"/>
       <c r="F98" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
@@ -4076,16 +4077,16 @@
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
       <c r="E99" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -4097,13 +4098,13 @@
       <c r="D100" s="21"/>
       <c r="E100" s="22"/>
       <c r="F100" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
@@ -4114,16 +4115,16 @@
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F101" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="G101" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="G101" s="13" t="s">
-        <v>290</v>
-      </c>
       <c r="H101" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
@@ -4135,13 +4136,13 @@
       <c r="D102" s="22"/>
       <c r="E102" s="22"/>
       <c r="F102" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H102" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -4151,19 +4152,19 @@
       <c r="B103" s="13"/>
       <c r="C103" s="22"/>
       <c r="D103" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F103" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G103" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="G103" s="13" t="s">
+      <c r="H103" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -4172,22 +4173,22 @@
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D104" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="E104" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E104" s="13" t="s">
+      <c r="F104" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G104" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F104" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G104" s="13" t="s">
+      <c r="H104" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
@@ -4198,14 +4199,14 @@
       <c r="C105" s="21"/>
       <c r="D105" s="19"/>
       <c r="E105" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="H105" s="17" t="s">
         <v>346</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>347</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
@@ -4215,19 +4216,19 @@
       <c r="B106" s="13"/>
       <c r="C106" s="21"/>
       <c r="D106" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G106" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E106" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>298</v>
-      </c>
       <c r="H106" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
@@ -4239,13 +4240,13 @@
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
       <c r="F107" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
@@ -11837,22 +11838,22 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -11863,16 +11864,16 @@
       <c r="C3" s="25"/>
       <c r="D3" s="18"/>
       <c r="E3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -11883,16 +11884,16 @@
       <c r="C4" s="25"/>
       <c r="D4" s="19"/>
       <c r="E4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -11904,13 +11905,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -11922,13 +11923,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -11939,13 +11940,13 @@
       <c r="C7" s="25"/>
       <c r="D7" s="6"/>
       <c r="E7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -11956,19 +11957,19 @@
       <c r="B8" s="4"/>
       <c r="C8" s="25"/>
       <c r="D8" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -11979,16 +11980,16 @@
       <c r="C9" s="25"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -11999,16 +12000,16 @@
       <c r="C10" s="25"/>
       <c r="D10" s="19"/>
       <c r="E10" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -12018,19 +12019,19 @@
       <c r="B11" s="4"/>
       <c r="C11" s="25"/>
       <c r="D11" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -12041,16 +12042,16 @@
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -12062,13 +12063,13 @@
       <c r="D13" s="25"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -12079,16 +12080,16 @@
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -12099,16 +12100,16 @@
       <c r="C15" s="25"/>
       <c r="D15" s="12"/>
       <c r="E15" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -12119,16 +12120,16 @@
       <c r="C16" s="25"/>
       <c r="D16" s="12"/>
       <c r="E16" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -12138,19 +12139,19 @@
       <c r="B17" s="4"/>
       <c r="C17" s="25"/>
       <c r="D17" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -12161,16 +12162,16 @@
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -12181,16 +12182,16 @@
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -12201,16 +12202,16 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -12221,16 +12222,16 @@
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -12241,16 +12242,16 @@
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -12261,16 +12262,16 @@
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
       <c r="E23" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -12280,19 +12281,19 @@
       <c r="B24" s="4"/>
       <c r="C24" s="25"/>
       <c r="D24" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -12303,16 +12304,16 @@
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -12323,16 +12324,16 @@
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -12344,13 +12345,13 @@
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -12362,13 +12363,13 @@
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -12380,13 +12381,13 @@
       <c r="D29" s="25"/>
       <c r="E29" s="26"/>
       <c r="F29" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -12397,16 +12398,16 @@
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>

--- a/优化项测试用例/优化Product.xlsx
+++ b/优化项测试用例/优化Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\DOC\测试\优化项测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79DA2D2F-1BA8-481E-AB37-E19B124DB1C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{76B6B78C-D4CE-4E93-9752-D7C8285BB919}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7356" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Product" sheetId="2" r:id="rId1"/>
@@ -1744,22 +1744,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2093,9 +2093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2123,10 +2123,10 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
@@ -2146,13 +2146,13 @@
     <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -2170,9 +2170,9 @@
     <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
@@ -2188,9 +2188,9 @@
     <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
@@ -2206,9 +2206,9 @@
     <row r="5" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="11" t="s">
         <v>309</v>
       </c>
@@ -2224,9 +2224,9 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="11" t="s">
         <v>311</v>
       </c>
@@ -2242,9 +2242,9 @@
     <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="11" t="s">
         <v>311</v>
       </c>
@@ -2260,9 +2260,9 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="11" t="s">
         <v>311</v>
       </c>
@@ -2278,9 +2278,9 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="11" t="s">
         <v>311</v>
       </c>
@@ -2296,9 +2296,9 @@
     <row r="10" spans="1:10" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="13" t="s">
         <v>354</v>
       </c>
@@ -2314,9 +2314,9 @@
     <row r="11" spans="1:10" ht="78" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="13" t="s">
         <v>356</v>
       </c>
@@ -2332,9 +2332,9 @@
     <row r="12" spans="1:10" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="13" t="s">
         <v>355</v>
       </c>
@@ -2350,9 +2350,9 @@
     <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -2370,9 +2370,9 @@
     <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2388,9 +2388,9 @@
     <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="13" t="s">
         <v>30</v>
       </c>
@@ -2406,7 +2406,7 @@
     <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="13" t="s">
         <v>101</v>
       </c>
@@ -2426,11 +2426,11 @@
     <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -2448,9 +2448,9 @@
     <row r="18" spans="1:10" ht="78" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="13" t="s">
         <v>37</v>
       </c>
@@ -2466,9 +2466,9 @@
     <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="13" t="s">
         <v>38</v>
       </c>
@@ -2484,9 +2484,9 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="13" t="s">
         <v>313</v>
       </c>
@@ -2502,9 +2502,9 @@
     <row r="21" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="13" t="s">
         <v>313</v>
       </c>
@@ -2520,9 +2520,9 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="13" t="s">
         <v>313</v>
       </c>
@@ -2538,9 +2538,9 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="13" t="s">
         <v>313</v>
       </c>
@@ -2556,9 +2556,9 @@
     <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="13" t="s">
         <v>44</v>
       </c>
@@ -2574,8 +2574,8 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="13" t="s">
         <v>52</v>
       </c>
@@ -2594,8 +2594,8 @@
     <row r="26" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="13" t="s">
         <v>53</v>
       </c>
@@ -2614,8 +2614,8 @@
     <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="13" t="s">
         <v>56</v>
       </c>
@@ -2634,8 +2634,8 @@
     <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="14" t="s">
         <v>55</v>
       </c>
@@ -2654,8 +2654,8 @@
     <row r="29" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="18" t="s">
         <v>166</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -2676,8 +2676,8 @@
     <row r="30" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="13" t="s">
         <v>41</v>
       </c>
@@ -2696,8 +2696,8 @@
     <row r="31" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
@@ -2716,8 +2716,8 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="13" t="s">
         <v>62</v>
       </c>
@@ -2736,8 +2736,8 @@
     <row r="33" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="18" t="s">
         <v>167</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -2758,8 +2758,8 @@
     <row r="34" spans="1:10" ht="78" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="13" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2778,8 @@
     <row r="35" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="13" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2798,8 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="13" t="s">
         <v>66</v>
       </c>
@@ -2818,8 +2818,8 @@
     <row r="37" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="13" t="s">
         <v>73</v>
       </c>
@@ -2838,8 +2838,8 @@
     <row r="38" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="13" t="s">
         <v>79</v>
       </c>
@@ -2858,8 +2858,8 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="13" t="s">
         <v>89</v>
       </c>
@@ -2878,8 +2878,8 @@
     <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="20" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="18" t="s">
         <v>168</v>
       </c>
       <c r="E40" s="13" t="s">
@@ -2900,8 +2900,8 @@
     <row r="41" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="13" t="s">
         <v>92</v>
       </c>
@@ -2920,8 +2920,8 @@
     <row r="42" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="13" t="s">
         <v>93</v>
       </c>
@@ -2940,8 +2940,8 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="13" t="s">
         <v>89</v>
       </c>
@@ -2960,8 +2960,8 @@
     <row r="44" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="18" t="s">
         <v>169</v>
       </c>
       <c r="E44" s="13" t="s">
@@ -2982,8 +2982,8 @@
     <row r="45" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="13" t="s">
         <v>97</v>
       </c>
@@ -3002,8 +3002,8 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="13" t="s">
         <v>89</v>
       </c>
@@ -3046,7 +3046,7 @@
     <row r="48" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>155</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -3070,8 +3070,8 @@
     <row r="49" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="20" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="18" t="s">
         <v>109</v>
       </c>
       <c r="E49" s="13" t="s">
@@ -3092,8 +3092,8 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="13" t="s">
         <v>140</v>
       </c>
@@ -3112,8 +3112,8 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="13" t="s">
         <v>113</v>
       </c>
@@ -3132,8 +3132,8 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="13" t="s">
         <v>114</v>
       </c>
@@ -3152,8 +3152,8 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="13" t="s">
         <v>115</v>
       </c>
@@ -3172,8 +3172,8 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="13" t="s">
         <v>121</v>
       </c>
@@ -3192,8 +3192,8 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="13" t="s">
         <v>144</v>
       </c>
@@ -3212,8 +3212,8 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="20" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E56" s="13" t="s">
@@ -3234,8 +3234,8 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="13" t="s">
         <v>121</v>
       </c>
@@ -3254,8 +3254,8 @@
     <row r="58" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="13" t="s">
         <v>131</v>
       </c>
@@ -3274,8 +3274,8 @@
     <row r="59" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="13" t="s">
         <v>132</v>
       </c>
@@ -3294,8 +3294,8 @@
     <row r="60" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="13" t="s">
         <v>133</v>
       </c>
@@ -3314,8 +3314,8 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="13" t="s">
         <v>144</v>
       </c>
@@ -3334,7 +3334,7 @@
     <row r="62" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="18" t="s">
         <v>153</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -3358,8 +3358,8 @@
     <row r="63" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="20" t="s">
+      <c r="C63" s="20"/>
+      <c r="D63" s="18" t="s">
         <v>32</v>
       </c>
       <c r="E63" s="13" t="s">
@@ -3380,8 +3380,8 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="13" t="s">
         <v>113</v>
       </c>
@@ -3400,8 +3400,8 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="13" t="s">
         <v>114</v>
       </c>
@@ -3420,8 +3420,8 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="13" t="s">
         <v>359</v>
       </c>
@@ -3440,8 +3440,8 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="13" t="s">
         <v>121</v>
       </c>
@@ -3460,8 +3460,8 @@
     <row r="68" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="13" t="s">
         <v>144</v>
       </c>
@@ -3480,8 +3480,8 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="20" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E69" s="13" t="s">
@@ -3502,8 +3502,8 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="13" t="s">
         <v>121</v>
       </c>
@@ -3522,8 +3522,8 @@
     <row r="71" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="13" t="s">
         <v>131</v>
       </c>
@@ -3542,8 +3542,8 @@
     <row r="72" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="13" t="s">
         <v>139</v>
       </c>
@@ -3562,8 +3562,8 @@
     <row r="73" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="13" t="s">
         <v>133</v>
       </c>
@@ -3582,8 +3582,8 @@
     <row r="74" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="13" t="s">
         <v>144</v>
       </c>
@@ -3602,13 +3602,13 @@
     <row r="75" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="13" t="s">
@@ -3626,9 +3626,9 @@
     <row r="76" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="22"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="13" t="s">
         <v>163</v>
       </c>
@@ -3644,8 +3644,8 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="13" t="s">
         <v>170</v>
       </c>
@@ -3664,8 +3664,8 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="13" t="s">
         <v>114</v>
       </c>
@@ -3684,8 +3684,8 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="13" t="s">
         <v>173</v>
       </c>
@@ -3704,9 +3704,9 @@
     <row r="80" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="20" t="s">
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="18" t="s">
         <v>175</v>
       </c>
       <c r="F80" s="13" t="s">
@@ -3724,9 +3724,9 @@
     <row r="81" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="22"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="13" t="s">
         <v>328</v>
       </c>
@@ -3742,8 +3742,8 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="13" t="s">
         <v>121</v>
       </c>
@@ -3762,8 +3762,8 @@
     <row r="83" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="13" t="s">
         <v>144</v>
       </c>
@@ -3782,8 +3782,8 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="20" t="s">
+      <c r="C84" s="20"/>
+      <c r="D84" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E84" s="13" t="s">
@@ -3804,8 +3804,8 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="13" t="s">
         <v>121</v>
       </c>
@@ -3824,8 +3824,8 @@
     <row r="86" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="13" t="s">
         <v>131</v>
       </c>
@@ -3844,8 +3844,8 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="13" t="s">
         <v>178</v>
       </c>
@@ -3860,8 +3860,8 @@
     <row r="88" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="13" t="s">
         <v>144</v>
       </c>
@@ -3880,13 +3880,13 @@
     <row r="89" spans="1:10" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="18" t="s">
         <v>201</v>
       </c>
       <c r="F89" s="13" t="s">
@@ -3904,9 +3904,9 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="22"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="19"/>
       <c r="F90" s="13" t="s">
         <v>303</v>
       </c>
@@ -3922,9 +3922,9 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="20" t="s">
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="18" t="s">
         <v>261</v>
       </c>
       <c r="F91" s="13" t="s">
@@ -3942,9 +3942,9 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="22"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="19"/>
       <c r="F92" s="13" t="s">
         <v>264</v>
       </c>
@@ -3960,9 +3960,9 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="20" t="s">
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="18" t="s">
         <v>267</v>
       </c>
       <c r="F93" s="13" t="s">
@@ -3980,9 +3980,9 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="22"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="19"/>
       <c r="F94" s="13" t="s">
         <v>269</v>
       </c>
@@ -3998,9 +3998,9 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="20" t="s">
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="18" t="s">
         <v>272</v>
       </c>
       <c r="F95" s="13" t="s">
@@ -4018,9 +4018,9 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="22"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="19"/>
       <c r="F96" s="13" t="s">
         <v>283</v>
       </c>
@@ -4036,9 +4036,9 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="20" t="s">
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="18" t="s">
         <v>276</v>
       </c>
       <c r="F97" s="13" t="s">
@@ -4056,9 +4056,9 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="22"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="19"/>
       <c r="F98" s="13" t="s">
         <v>284</v>
       </c>
@@ -4074,9 +4074,9 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="20" t="s">
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="18" t="s">
         <v>281</v>
       </c>
       <c r="F99" s="13" t="s">
@@ -4094,9 +4094,9 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="22"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="19"/>
       <c r="F100" s="13" t="s">
         <v>278</v>
       </c>
@@ -4112,9 +4112,9 @@
     <row r="101" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="20" t="s">
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="18" t="s">
         <v>287</v>
       </c>
       <c r="F101" s="13" t="s">
@@ -4132,9 +4132,9 @@
     <row r="102" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
       <c r="F102" s="13" t="s">
         <v>298</v>
       </c>
@@ -4150,7 +4150,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
-      <c r="C103" s="22"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="13" t="s">
         <v>302</v>
       </c>
@@ -4172,10 +4172,10 @@
     <row r="104" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="22" t="s">
         <v>292</v>
       </c>
       <c r="E104" s="13" t="s">
@@ -4196,8 +4196,8 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="16" t="s">
         <v>344</v>
       </c>
@@ -4214,11 +4214,11 @@
     <row r="106" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="20" t="s">
+      <c r="C106" s="20"/>
+      <c r="D106" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="18" t="s">
         <v>296</v>
       </c>
       <c r="F106" s="13" t="s">
@@ -4236,9 +4236,9 @@
     <row r="107" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
       <c r="F107" s="13" t="s">
         <v>298</v>
       </c>
@@ -11732,14 +11732,17 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="D17:D28"/>
+    <mergeCell ref="E17:E24"/>
     <mergeCell ref="C2:C46"/>
     <mergeCell ref="E106:E107"/>
     <mergeCell ref="D106:D107"/>
@@ -11756,17 +11759,14 @@
     <mergeCell ref="D56:D61"/>
     <mergeCell ref="D49:D55"/>
     <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="D17:D28"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="C48:C61"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E80:E81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -11783,10 +11783,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J718"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11862,7 +11862,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="18"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="4" t="s">
         <v>185</v>
       </c>
@@ -11882,7 +11882,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="19"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="4" t="s">
         <v>251</v>
       </c>
@@ -11956,7 +11956,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="22" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -11998,7 +11998,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="4" t="s">
         <v>215</v>
       </c>
